--- a/biology/Zoologie/Bangana/Bangana.xlsx
+++ b/biology/Zoologie/Bangana/Bangana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bangana est un genre de poissons téléostéens de la famille des Cyprinidae et de l'ordre des Cypriniformes. Le genre est distribué à travers une grande partie de l'Asie méridionale et orientale. Ses espèces vivent principalement dans les eaux qui coulent des rivières tropicales et subtropicales[1]. Bangana comprend de nombreuses espèces anciennement classées dans le genre Sinilabeo[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangana est un genre de poissons téléostéens de la famille des Cyprinidae et de l'ordre des Cypriniformes. Le genre est distribué à travers une grande partie de l'Asie méridionale et orientale. Ses espèces vivent principalement dans les eaux qui coulent des rivières tropicales et subtropicales. Bangana comprend de nombreuses espèces anciennement classées dans le genre Sinilabeo.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (15 septembre 2015)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (15 septembre 2015) :
 Bangana almorae (Chaudhuri, 1912)
 Bangana ariza (Hamilton, 1807)
 Bangana behri (Fowler, 1937)
